--- a/prepdata/8m/tochoku_comment_8.xlsx
+++ b/prepdata/8m/tochoku_comment_8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
   <si>
     <t>name</t>
   </si>
@@ -31,409 +31,304 @@
     <t>日直・当直希望についての備考</t>
   </si>
   <si>
+    <t>髙木菜々美</t>
+  </si>
+  <si>
+    <t>福井梓穂</t>
+  </si>
+  <si>
+    <t>佐久間一也</t>
+  </si>
+  <si>
+    <t>石井真央</t>
+  </si>
+  <si>
+    <t>吉村梨沙</t>
+  </si>
+  <si>
+    <t>谷岡友則</t>
+  </si>
+  <si>
+    <t>高梨航輔</t>
+  </si>
+  <si>
+    <t>野上創生</t>
+  </si>
+  <si>
+    <t>岡村真伊</t>
+  </si>
+  <si>
+    <t>岩崎文美</t>
+  </si>
+  <si>
+    <t>鈴木徹志郎</t>
+  </si>
+  <si>
+    <t>熊木聡美</t>
+  </si>
+  <si>
+    <t>松原龍輔</t>
+  </si>
+  <si>
+    <t>織部峻太郎</t>
+  </si>
+  <si>
+    <t>臼坂優希</t>
+  </si>
+  <si>
+    <t>吉田博道</t>
+  </si>
+  <si>
+    <t>伊藤国秋</t>
+  </si>
+  <si>
+    <t>平井智大</t>
+  </si>
+  <si>
+    <t>勝俣敬寛</t>
+  </si>
+  <si>
+    <t>佐川偲</t>
+  </si>
+  <si>
+    <t>川瀬咲</t>
+  </si>
+  <si>
+    <t>東條誠也</t>
+  </si>
+  <si>
+    <t>青木康浩</t>
+  </si>
+  <si>
+    <t>茅島敦人</t>
+  </si>
+  <si>
+    <t>門松賢</t>
+  </si>
+  <si>
+    <t>雪野満</t>
+  </si>
+  <si>
     <t>久冨木原健二</t>
   </si>
   <si>
-    <t>伊藤国秋</t>
-  </si>
-  <si>
-    <t>佐久間一也</t>
-  </si>
-  <si>
-    <t>佐川偲</t>
-  </si>
-  <si>
-    <t>先崎光</t>
-  </si>
-  <si>
-    <t>入佐薫</t>
-  </si>
-  <si>
-    <t>勝俣敬寛</t>
-  </si>
-  <si>
-    <t>吉村梨沙</t>
-  </si>
-  <si>
-    <t>吉田博道</t>
+    <t>篠﨑太郎</t>
+  </si>
+  <si>
+    <t>福原誠一郎</t>
+  </si>
+  <si>
+    <t>津山頌章</t>
+  </si>
+  <si>
+    <t>松永崇宏</t>
+  </si>
+  <si>
+    <t>持丸貴生</t>
+  </si>
+  <si>
+    <t>太良史郎</t>
+  </si>
+  <si>
+    <t>大重達寛</t>
   </si>
   <si>
     <t>吉田心慈</t>
   </si>
   <si>
-    <t>大重達寛</t>
-  </si>
-  <si>
-    <t>太良史郎</t>
-  </si>
-  <si>
-    <t>小林佐紀子</t>
-  </si>
-  <si>
-    <t>小西美沙子</t>
-  </si>
-  <si>
-    <t>山田康博</t>
-  </si>
-  <si>
-    <t>岡村真伊</t>
-  </si>
-  <si>
-    <t>岩崎文美</t>
-  </si>
-  <si>
-    <t>川瀬咲</t>
-  </si>
-  <si>
-    <t>平井智大</t>
-  </si>
-  <si>
-    <t>持丸貴生</t>
-  </si>
-  <si>
-    <t>星貴文</t>
-  </si>
-  <si>
-    <t>東條誠也</t>
-  </si>
-  <si>
-    <t>松原龍輔</t>
-  </si>
-  <si>
-    <t>松永崇宏</t>
+    <t>脇坂悠介</t>
   </si>
   <si>
     <t>林智史</t>
   </si>
   <si>
-    <t>津山頌章</t>
-  </si>
-  <si>
-    <t>清水隆之</t>
-  </si>
-  <si>
-    <t>渡邉多代</t>
-  </si>
-  <si>
-    <t>熊木聡美</t>
-  </si>
-  <si>
-    <t>片山充哉</t>
-  </si>
-  <si>
-    <t>石井真央</t>
-  </si>
-  <si>
-    <t>福井梓穂</t>
-  </si>
-  <si>
-    <t>福原誠一郎</t>
-  </si>
-  <si>
-    <t>篠﨑太郎</t>
-  </si>
-  <si>
-    <t>籠尾壽哉</t>
-  </si>
-  <si>
-    <t>織部峻太郎</t>
-  </si>
-  <si>
-    <t>脇坂悠介</t>
-  </si>
-  <si>
-    <t>臼坂優希</t>
-  </si>
-  <si>
-    <t>茅島敦人</t>
-  </si>
-  <si>
-    <t>藤村慶子</t>
-  </si>
-  <si>
-    <t>谷岡友則</t>
-  </si>
-  <si>
-    <t>里見良輔</t>
-  </si>
-  <si>
-    <t>野上創生</t>
-  </si>
-  <si>
-    <t>鈴木勝也</t>
-  </si>
-  <si>
-    <t>鈴木徹志郎</t>
-  </si>
-  <si>
-    <t>門松賢</t>
-  </si>
-  <si>
-    <t>雪野満</t>
-  </si>
-  <si>
-    <t>青木康浩</t>
-  </si>
-  <si>
-    <t>高梨航輔</t>
-  </si>
-  <si>
-    <t>髙木菜々美</t>
+    <t>8月4日 ,8月8日 ,8月15日 ,8月29日</t>
+  </si>
+  <si>
+    <t>8月1日</t>
+  </si>
+  <si>
+    <t>8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月10日 ,8月11日 ,8月12日 ,8月24日 ,8月25日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月17日 ,8月24日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月3日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月13日 ,8月16日 ,8月17日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月23日 ,8月24日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月3日 ,8月4日 ,8月5日 ,8月6日 ,8月8日 ,8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月19日 ,8月20日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月3日 ,8月6日 ,8月7日 ,8月8日 ,8月11日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月18日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月25日 ,8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月6日 ,8月13日 ,8月20日</t>
+  </si>
+  <si>
+    <t>8月5日 ,8月6日 ,8月7日 ,8月13日 ,8月14日 ,8月20日 ,8月21日 ,8月27日 ,8月28日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月8日 ,8月15日 ,8月29日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月9日 ,8月16日 ,8月23日</t>
   </si>
   <si>
     <t>8月6日 ,8月13日 ,8月27日</t>
   </si>
   <si>
-    <t>8月6日 ,8月7日 ,8月8日 ,8月13日 ,8月14日 ,8月15日 ,8月20日 ,8月21日 ,8月22日 ,8月27日 ,8月28日 ,8月29日</t>
+    <t>8月2日 ,8月3日 ,8月7日 ,8月9日 ,8月10日 ,8月21日 ,8月28日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月3日 ,8月4日 ,8月5日 ,8月8日 ,8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月15日 ,8月22日 ,8月23日 ,8月26日 ,8月29日 ,8月30日</t>
   </si>
   <si>
     <t>8月3日</t>
   </si>
   <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月4日 ,8月5日 ,8月6日 ,8月8日 ,8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月19日 ,8月20日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月1日</t>
-  </si>
-  <si>
     <t>8月2日 ,8月5日 ,8月16日 ,8月18日 ,8月19日 ,8月26日</t>
   </si>
   <si>
-    <t>8月3日 ,8月10日 ,8月24日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月10日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月6日 ,8月7日 ,8月8日 ,8月11日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月18日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月25日 ,8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月3日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月13日 ,8月16日 ,8月17日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月23日 ,8月24日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
     <t>8月1日 ,8月5日 ,8月7日 ,8月8日 ,8月10日 ,8月11日 ,8月12日 ,8月19日 ,8月21日 ,8月26日 ,8月28日</t>
   </si>
   <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月4日 ,8月5日 ,8月8日 ,8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月15日 ,8月22日 ,8月23日 ,8月26日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月18日 ,8月25日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月3日 ,8月7日 ,8月9日 ,8月10日 ,8月21日 ,8月28日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月17日 ,8月24日</t>
-  </si>
-  <si>
-    <t>8月5日 ,8月6日 ,8月7日 ,8月13日 ,8月14日 ,8月20日 ,8月21日 ,8月27日 ,8月28日</t>
-  </si>
-  <si>
-    <t>8月11日 ,8月12日 ,8月17日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月10日 ,8月11日 ,8月12日 ,8月17日 ,8月24日 ,8月25日</t>
-  </si>
-  <si>
-    <t>8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月10日 ,8月11日 ,8月12日 ,8月24日 ,8月25日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月8日 ,8月15日 ,8月29日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月9日 ,8月16日 ,8月23日</t>
-  </si>
-  <si>
-    <t>8月6日 ,8月13日 ,8月20日</t>
-  </si>
-  <si>
-    <t>8月4日 ,8月8日 ,8月15日 ,8月29日</t>
+    <t>8月3日 ,8月9日 ,8月10日 ,8月11日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月3日 ,8月4日 ,8月9日 ,8月10日 ,8月11日 ,8月16日 ,8月17日 ,8月18日 ,8月23日 ,8月24日 ,8月25日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月8日</t>
+  </si>
+  <si>
+    <t>8月10日 ,8月11日 ,8月24日 ,8月25日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月9日 ,8月10日 ,8月11日 ,8月12日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日</t>
+  </si>
+  <si>
+    <t>8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月23日 ,8月24日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月3日 ,8月10日 ,8月11日 ,8月16日 ,8月17日 ,8月18日</t>
+  </si>
+  <si>
+    <t>8月31日</t>
+  </si>
+  <si>
+    <t>8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月3日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月3日 ,8月4日 ,8月10日 ,8月17日 ,8月18日 ,8月29日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月15日 ,8月16日 ,8月17日 ,8月18日 ,8月19日 ,8月20日</t>
+  </si>
+  <si>
+    <t>8月6日 ,8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月13日 ,8月16日 ,8月20日 ,8月23日 ,8月24日 ,8月25日 ,8月27日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月11日 ,8月12日</t>
+  </si>
+  <si>
+    <t>8月6日 ,8月21日 ,8月24日 ,8月25日 ,8月29日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月3日 ,8月7日 ,8月9日 ,8月10日 ,8月14日 ,8月16日 ,8月17日 ,8月21日 ,8月23日 ,8月24日 ,8月28日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月8日 ,8月14日 ,8月15日 ,8月22日 ,8月29日</t>
+  </si>
+  <si>
+    <t>8月7日 ,8月16日 ,8月17日 ,8月18日 ,8月21日 ,8月24日 ,8月25日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月4日 ,8月9日 ,8月10日 ,8月11日 ,8月18日 ,8月25日</t>
+  </si>
+  <si>
+    <t>8月4日 ,8月5日 ,8月9日 ,8月10日 ,8月12日 ,8月19日 ,8月26日</t>
+  </si>
+  <si>
+    <t>8月16日 ,8月17日</t>
+  </si>
+  <si>
+    <t>8月3日 ,8月7日 ,8月10日 ,8月11日 ,8月14日 ,8月17日 ,8月21日 ,8月24日 ,8月25日 ,8月26日 ,8月28日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月11日 ,8月12日 ,8月15日 ,8月16日 ,8月17日 ,8月18日 ,8月19日 ,8月23日 ,8月24日 ,8月25日 ,8月26日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月3日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月13日 ,8月14日 ,8月16日 ,8月17日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月25日 ,8月26日 ,8月27日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月24日 ,8月25日 ,8月30日 ,8月31日</t>
   </si>
   <si>
     <t>8月4日 ,8月5日 ,8月7日 ,8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月18日 ,8月19日 ,8月21日 ,8月23日 ,8月24日 ,8月26日 ,8月28日 ,8月31日</t>
   </si>
   <si>
-    <t>8月2日 ,8月3日 ,8月7日 ,8月9日 ,8月10日 ,8月14日 ,8月16日 ,8月17日 ,8月21日 ,8月23日 ,8月24日 ,8月28日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月8日</t>
-  </si>
-  <si>
-    <t>8月4日 ,8月9日 ,8月10日 ,8月11日 ,8月18日 ,8月25日</t>
-  </si>
-  <si>
-    <t>8月4日 ,8月10日 ,8月11日 ,8月12日 ,8月17日 ,8月18日 ,8月25日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月7日 ,8月16日 ,8月17日 ,8月18日 ,8月21日 ,8月24日 ,8月25日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月9日 ,8月10日 ,8月11日 ,8月12日</t>
-  </si>
-  <si>
-    <t>8月6日 ,8月21日 ,8月24日 ,8月25日 ,8月29日 ,8月30日 ,8月31日</t>
+    <t>8月4日 ,8月6日 ,8月10日 ,8月11日 ,8月12日 ,8月13日 ,8月18日 ,8月20日 ,8月25日 ,8月27日</t>
+  </si>
+  <si>
+    <t>8月6日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月19日 ,8月20日 ,8月23日 ,8月24日 ,8月26日 ,8月27日</t>
+  </si>
+  <si>
+    <t>8月6日 ,8月7日 ,8月13日 ,8月14日 ,8月16日 ,8月17日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月24日 ,8月25日 ,8月27日 ,8月28日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月3日 ,8月4日 ,8月7日 ,8月8日 ,8月10日 ,8月11日 ,8月12日 ,8月14日 ,8月15日 ,8月17日 ,8月18日 ,8月21日 ,8月22日 ,8月24日 ,8月25日 ,8月28日 ,8月29日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月9日 ,8月11日 ,8月12日 ,8月13日 ,8月14日 ,8月16日 ,8月17日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月23日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月3日 ,8月4日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月15日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月25日 ,8月29日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月7日 ,8月9日 ,8月10日 ,8月12日 ,8月14日 ,8月21日 ,8月23日 ,8月24日 ,8月28日</t>
   </si>
   <si>
     <t>8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月14日 ,8月17日 ,8月18日 ,8月20日 ,8月21日 ,8月24日 ,8月25日 ,8月28日 ,8月29日 ,8月30日 ,8月31日</t>
   </si>
   <si>
-    <t>8月7日 ,8月9日 ,8月10日 ,8月12日 ,8月14日 ,8月21日 ,8月23日 ,8月24日 ,8月28日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月4日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月15日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月25日 ,8月29日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月17日 ,8月18日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月18日</t>
-  </si>
-  <si>
-    <t>8月31日</t>
-  </si>
-  <si>
-    <t>8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月4日 ,8月5日 ,8月9日 ,8月10日 ,8月12日 ,8月19日 ,8月26日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月8日 ,8月14日 ,8月15日 ,8月22日 ,8月29日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月9日 ,8月11日 ,8月12日 ,8月13日 ,8月14日 ,8月16日 ,8月17日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月23日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月24日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月16日 ,8月17日</t>
-  </si>
-  <si>
-    <t>8月15日 ,8月16日 ,8月17日 ,8月18日 ,8月19日 ,8月20日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月3日 ,8月4日 ,8月7日 ,8月8日 ,8月10日 ,8月11日 ,8月12日 ,8月14日 ,8月15日 ,8月17日 ,8月18日 ,8月21日 ,8月22日 ,8月24日 ,8月25日 ,8月28日 ,8月29日 ,8月31日</t>
+    <t>8月1日 ,8月4日 ,8月5日 ,8月8日 ,8月9日 ,8月15日 ,8月16日 ,8月17日 ,8月18日 ,8月22日 ,8月23日 ,8月24日 ,8月29日 ,8月30日 ,8月31日</t>
   </si>
   <si>
     <t>8月2日 ,8月3日 ,8月4日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月18日 ,8月24日 ,8月25日 ,8月29日 ,8月31日</t>
   </si>
   <si>
-    <t>8月6日 ,8月7日 ,8月13日 ,8月14日 ,8月16日 ,8月17日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月24日 ,8月25日 ,8月27日 ,8月28日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月4日 ,8月10日 ,8月11日 ,8月12日 ,8月24日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月4日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月4日 ,8月10日 ,8月17日 ,8月18日 ,8月29日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月4日 ,8月10日 ,8月11日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月10日 ,8月11日 ,8月24日 ,8月25日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月3日 ,8月4日 ,8月9日 ,8月10日 ,8月11日 ,8月16日 ,8月17日 ,8月18日 ,8月23日 ,8月24日 ,8月25日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月6日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月19日 ,8月20日 ,8月23日 ,8月24日 ,8月26日 ,8月27日</t>
-  </si>
-  <si>
-    <t>8月4日 ,8月6日 ,8月10日 ,8月11日 ,8月12日 ,8月13日 ,8月18日 ,8月20日 ,8月25日 ,8月27日</t>
-  </si>
-  <si>
-    <t>8月17日 ,8月24日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月6日 ,8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月13日 ,8月16日 ,8月20日 ,8月23日 ,8月24日 ,8月25日 ,8月27日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月4日 ,8月5日 ,8月8日 ,8月9日 ,8月15日 ,8月16日 ,8月17日 ,8月18日 ,8月22日 ,8月23日 ,8月24日 ,8月29日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月11日 ,8月12日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月11日 ,8月12日 ,8月15日 ,8月16日 ,8月17日 ,8月18日 ,8月19日 ,8月23日 ,8月24日 ,8月25日 ,8月26日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月4日 ,8月10日 ,8月24日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月10日 ,8月11日 ,8月16日 ,8月17日 ,8月18日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月10日 ,8月17日 ,8月24日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月3日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月13日 ,8月14日 ,8月16日 ,8月17日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月25日 ,8月26日 ,8月27日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月24日 ,8月25日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月7日 ,8月10日 ,8月11日 ,8月14日 ,8月17日 ,8月21日 ,8月24日 ,8月25日 ,8月26日 ,8月28日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月9日 ,8月10日 ,8月11日 ,8月12日 ,8月23日 ,8月24日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月9日 ,8月10日 ,8月11日 ,8月31日</t>
-  </si>
-  <si>
     <t>tochoku</t>
   </si>
   <si>
+    <t>F当直、病棟当直希望</t>
+  </si>
+  <si>
+    <t>不可日が多く申し訳ございません。</t>
+  </si>
+  <si>
+    <t>8月18日　JMECC受講でシフトにないることできません。</t>
+  </si>
+  <si>
+    <t>8/15-20で夏休みをとらせていただきます</t>
+  </si>
+  <si>
     <t>土曜日午前は子どもの習い事の都合でどちらかといえば避けたいですが、おまかせします！</t>
   </si>
   <si>
-    <t>8月15日から21日夏季休暇をいただいております。</t>
-  </si>
-  <si>
-    <t>ご迷惑をお掛けします。申し訳ございません。</t>
-  </si>
-  <si>
-    <t>8/15-20で夏休みをとらせていただきます</t>
-  </si>
-  <si>
-    <t>8/18 第一希望です。</t>
-  </si>
-  <si>
-    <t>F当直、病棟当直希望</t>
+    <t>水曜日は翌日の外勤のため不可です。</t>
   </si>
   <si>
     <t>10 3 31の順で希望</t>
-  </si>
-  <si>
-    <t>17日　学会、24日　研究会、31日　私用</t>
-  </si>
-  <si>
-    <t>8月18日　JMECC受講でシフトにないることできません。</t>
-  </si>
-  <si>
-    <t>水曜日は翌日の外勤のため不可です。</t>
-  </si>
-  <si>
-    <t>不可日が多く申し訳ございません。</t>
   </si>
 </sst>
 </file>
@@ -791,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -816,33 +711,36 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -853,773 +751,555 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>97</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>97</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>97</v>
+      </c>
+      <c r="F30" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
